--- a/reports/Sales-Report.xlsx
+++ b/reports/Sales-Report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="20">
   <si>
     <t>SL No</t>
   </si>
@@ -450,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G37"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
@@ -761,6 +761,558 @@
         <v>180</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="1">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>2</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="1">
+        <v>3</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="1">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>6</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="1">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
